--- a/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2D_5Hz.xlsx
+++ b/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2D_5Hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,888 +436,603 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>Loc</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnormalized P_max</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Electrode Locations</t>
+          <t>P_max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A1_bipolar_20V_5Hz.txt</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>125.587219</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A7_bipolar_20V_5Hz.txt</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>74.995852</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A9_bipolar_20V_5Hz.txt</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>67.535225</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A9</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A13_bipolar_20V_5Hz.txt</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>53.072186</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B3_bipolar_20V_5Hz.txt</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>76.025322</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B6_bipolar_20V_5Hz.txt</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>72.230414</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B12_bipolar_20V_5Hz.txt</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>56.425028</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B12</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C1_bipolar_20V_5Hz.txt</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>74.735457</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C3_bipolar_20V_5Hz.txt</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>70.429852</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C7_bipolar_20V_5Hz.txt</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>68.58286200000001</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C9_bipolar_20V_5Hz.txt</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>65.57519600000001</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C9</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C11_bipolar_20V_5Hz.txt</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>58.49406</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C11</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C13_bipolar_20V_5Hz.txt</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>54.15212</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C13</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D6_bipolar_20V_5Hz.txt</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>66.810559</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D15_bipolar_20V_5Hz.txt</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>53.641423</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D15</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E1_bipolar_20V_5Hz.txt</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>76.505741</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E5_bipolar_20V_5Hz.txt</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>64.862641</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E5</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E11_bipolar_20V_5Hz.txt</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>52.448449</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E11</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E13_bipolar_20V_5Hz.txt</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>58.689861</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E13</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E15_bipolar_20V_5Hz.txt</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>53.877595</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E15</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F3_bipolar_20V_5Hz.txt</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>70.39553600000001</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>F3</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F8_bipolar_20V_5Hz.txt</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>66.324084</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>F8</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G5_bipolar_20V_5Hz.txt</t>
+          <t>F10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.597415</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
+        <v>63.496071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>G7_bipolar_20V_5Hz.txt</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.668473</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
+        <v>55.597415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G9_bipolar_20V_5Hz.txt</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.270392</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>G9</t>
-        </is>
+        <v>52.668473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G15_bipolar_20V_5Hz.txt</t>
+          <t>G9</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.7589</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>G15</t>
-        </is>
+        <v>65.270392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H1_bipolar_20V_5Hz.txt</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.539248</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
+        <v>55.7589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>H3_bipolar_20V_5Hz.txt</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.135141</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
+        <v>77.539248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>H14_bipolar_20V_5Hz.txt</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>59.539678</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>H14</t>
-        </is>
+        <v>70.135141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I1_bipolar_20V_5Hz.txt</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.968839</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
+        <v>59.539678</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I5_bipolar_20V_5Hz.txt</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.884029</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
+        <v>50.968839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I9_bipolar_20V_5Hz.txt</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.613556</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>I9</t>
-        </is>
+        <v>70.884029</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I13_bipolar_20V_5Hz.txt</t>
+          <t>I9</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.36689</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>I13</t>
-        </is>
+        <v>60.613556</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I15_bipolar_20V_5Hz.txt</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56.057648</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>I15</t>
-        </is>
+        <v>58.36689</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>J3_bipolar_20V_5Hz.txt</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.533607</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
+        <v>56.057648</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>J8_bipolar_20V_5Hz.txt</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.341777</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>J8</t>
-        </is>
+        <v>69.533607</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>J11_bipolar_20V_5Hz.txt</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.256277</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>J11</t>
-        </is>
+        <v>32.341777</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>K6_bipolar_20V_5Hz.txt</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.764533</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>K6</t>
-        </is>
+        <v>55.256277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>K8_bipolar_20V_5Hz.txt</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.135155</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>K8</t>
-        </is>
+        <v>68.764533</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>K13_bipolar_20V_5Hz.txt</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.01888</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>K13</t>
-        </is>
+        <v>60.135155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K15_bipolar_20V_5Hz.txt</t>
+          <t>K13</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>59.515455</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>K15</t>
-        </is>
+        <v>64.01888</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L1_bipolar_20V_5Hz.txt</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.624836</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
+        <v>59.515455</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>L3_bipolar_20V_5Hz.txt</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.91551699999999</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
+        <v>76.624836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L11_bipolar_20V_5Hz.txt</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.682581</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>L11</t>
-        </is>
+        <v>71.91551699999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M1_bipolar_20V_5Hz.txt</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.54732199999999</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
+        <v>67.682581</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>M5_bipolar_20V_5Hz.txt</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>72.38584400000001</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
+        <v>77.54732199999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M7_bipolar_20V_5Hz.txt</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>72.486772</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>M7</t>
-        </is>
+        <v>72.38584400000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M13_bipolar_20V_5Hz.txt</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>63.510201</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>M13</t>
-        </is>
+        <v>72.486772</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>N4_bipolar_20V_5Hz.txt</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>76.24332699999999</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>N4</t>
-        </is>
+        <v>63.510201</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>N9_bipolar_20V_5Hz.txt</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>71.681364</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>N9</t>
-        </is>
+        <v>76.24332699999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>N12_bipolar_20V_5Hz.txt</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>68.211445</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>N12</t>
-        </is>
+        <v>71.681364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>N15_bipolar_20V_5Hz.txt</t>
+          <t>N12</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>62.060869</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>N15</t>
-        </is>
+        <v>68.211445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>O1_bipolar_20V_5Hz.txt</t>
+          <t>N15</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>79.52551800000001</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
+        <v>62.060869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>O3_bipolar_20V_5Hz.txt</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>83.66358200000001</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
+        <v>79.52551800000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>O6_bipolar_20V_5Hz.txt</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>71.182777</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>O6</t>
-        </is>
+        <v>83.66358200000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>O9_bipolar_20V_5Hz.txt</t>
+          <t>O6</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>86.16862500000001</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>O9</t>
-        </is>
+        <v>71.182777</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>O11_bipolar_20V_5Hz.txt</t>
+          <t>O9</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>76.998271</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>O11</t>
-        </is>
+        <v>86.16862500000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>O13_bipolar_20V_5Hz.txt</t>
+          <t>O11</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>76.998271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>70.490409</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>O13</t>
-        </is>
       </c>
     </row>
   </sheetData>
